--- a/biology/Botanique/Victoria_Park_(Portsmouth)/Victoria_Park_(Portsmouth).xlsx
+++ b/biology/Botanique/Victoria_Park_(Portsmouth)/Victoria_Park_(Portsmouth).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victoria Park est un parc public situé juste au nord de Portsmouth Guildhall, à côté de la gare de Portsmouth et de la gare de Southsea et à proximité du centre-ville de Portsmouth, dans le Hampshire.
-Il fut officiellement inauguré le 25 mai 1878 et fut le premier parc public à être ouvert à Portsmouth. Il a été conçu par Alexander McKenzie. Il a une superficie totale d'environ 6 hectares et est planté d'arbres, d'arbustes et de fleurs. Le centre du parc comprend un espace clos qui abrite des animaux tels que des oiseaux, des lapins et des cobayes[1],[2],[3],[4],[5].
-Le parc abrite également un certain nombre de monuments[6]. Ceux-ci consistent principalement en obélisques, mais il en existe également un dans le style d'un temple chinois[6].
+Il fut officiellement inauguré le 25 mai 1878 et fut le premier parc public à être ouvert à Portsmouth. Il a été conçu par Alexander McKenzie. Il a une superficie totale d'environ 6 hectares et est planté d'arbres, d'arbustes et de fleurs. Le centre du parc comprend un espace clos qui abrite des animaux tels que des oiseaux, des lapins et des cobayes.
+Le parc abrite également un certain nombre de monuments. Ceux-ci consistent principalement en obélisques, mais il en existe également un dans le style d'un temple chinois.
 </t>
         </is>
       </c>
